--- a/saderat/Saderat.BPM.QC-CHPR02-45.0 - 82-83.xlsx
+++ b/saderat/Saderat.BPM.QC-CHPR02-45.0 - 82-83.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiralipour\Documents\control-quality\saderat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD18BF17-F0A4-4243-BCE7-038EF12601B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A79004E-6480-4C8C-9735-497105AFAE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="چکلیست عمومی" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
   <si>
     <t>نام فرایند</t>
   </si>
@@ -351,23 +351,56 @@
     <t>کیفیت چکلیست زیرساخت</t>
   </si>
   <si>
-    <t>سیستم جامع بازرسی بانک صادرات ایران</t>
-  </si>
-  <si>
-    <t>پویا شیرعلی پور</t>
-  </si>
-  <si>
-    <t>1403/08/26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فرایند های صدور حکم و بازرسی و پیگیری </t>
+    <t>در تعیین بازرسی، با ثبت فرآیند، فرایند تعیین برنامه به حالت معلق درآمد و قابل دسترسی نبود.</t>
+  </si>
+  <si>
+    <t>"تعیین ضماِم گزارش" و "بررسی نهایی گزارش" باید به  جای بررسی اولیه گزارش و خاتمه گزارش داشته باشیم.</t>
+  </si>
+  <si>
+    <t>قانون 1</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>خطای بازدارنده جهت تست</t>
+  </si>
+  <si>
+    <t>لیبل چکباکس "امکان ارسال مستقیم فرازها به بازرسی شونده"  اشتباه هست.</t>
+  </si>
+  <si>
+    <t>قانون 1، کلمه مستقیم فرازها جا افتاده است.</t>
+  </si>
+  <si>
+    <t>به جای فرم مشاهده کشفیات، فرم درج کشفیت را باز می کند.</t>
+  </si>
+  <si>
+    <t>قانون 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	 در صورت نبود فراز یا نزدن  لینک تعیین برنامه با انتخاب دکمه "مشاهده و ثبت سو استغاده"، فرم ثبت سو استفاده با خطا باز می شود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غیر فعال کردن چکباکس درج اطلاعات آماری ، تاثیری ندارد. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">غیر فعال کردن چکباکس درج شماره نمونه ها ، تاثیری ندارد. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">غیر فعال کردن چکباکس درج ارزیابی ، تاثیری ندارد. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">غیر فعال کردن چکباکس "درج آمار خودپرداز در انتها گزارش" ، تاثیری ندارد. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">غیر فعال کردن چکباکس "فرازهای تکراری جدول شود"،  ، تاثیری ندارد. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,6 +459,12 @@
       <color theme="1"/>
       <name val="B Nazanin"/>
       <charset val="178"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -601,25 +640,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1198,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1229,19 +1258,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>93</v>
-      </c>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.45">
@@ -1895,16 +1916,13 @@
     <mergeCell ref="A52:C52"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:C2">
-    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C66 A4 A82:C1048576">
-    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C66">
-    <cfRule type="duplicateValues" dxfId="28" priority="189"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="188"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1945,21 +1963,21 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="str">
+      <c r="A2" s="3">
         <f>'چکلیست عمومی'!A2</f>
-        <v>پویا شیرعلی پور</v>
-      </c>
-      <c r="B2" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
         <f>'چکلیست عمومی'!B2</f>
-        <v>1403/08/26</v>
-      </c>
-      <c r="C2" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
         <f>'چکلیست عمومی'!C2</f>
-        <v>سیستم جامع بازرسی بانک صادرات ایران</v>
-      </c>
-      <c r="D2" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
         <f>'چکلیست عمومی'!D2</f>
-        <v xml:space="preserve">فرایند های صدور حکم و بازرسی و پیگیری </v>
+        <v>0</v>
       </c>
       <c r="E2" s="3">
         <f>'چکلیست عمومی'!E2</f>
@@ -2165,53 +2183,53 @@
     <mergeCell ref="A13:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="27" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5 A4">
-    <cfRule type="duplicateValues" dxfId="26" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="duplicateValues" dxfId="25" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:C6">
-    <cfRule type="duplicateValues" dxfId="24" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7">
-    <cfRule type="duplicateValues" dxfId="22" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8">
-    <cfRule type="duplicateValues" dxfId="20" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9">
-    <cfRule type="duplicateValues" dxfId="18" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:C10">
-    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C17">
-    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:C18">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:C19">
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:C20">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:C21">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2221,7 +2239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A69029-A46F-4F27-95F5-737DE55CE3FA}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:C16"/>
     </sheetView>
   </sheetViews>
@@ -2252,21 +2270,21 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="str">
+      <c r="A2" s="3">
         <f>'چکلیست عمومی'!A2</f>
-        <v>پویا شیرعلی پور</v>
-      </c>
-      <c r="B2" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
         <f>'چکلیست عمومی'!B2</f>
-        <v>1403/08/26</v>
-      </c>
-      <c r="C2" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
         <f>'چکلیست عمومی'!C2</f>
-        <v>سیستم جامع بازرسی بانک صادرات ایران</v>
-      </c>
-      <c r="D2" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
         <f>'چکلیست عمومی'!D2</f>
-        <v xml:space="preserve">فرایند های صدور حکم و بازرسی و پیگیری </v>
+        <v>0</v>
       </c>
       <c r="E2" s="3">
         <f>'چکلیست عمومی'!E2</f>
@@ -2306,74 +2324,134 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="25" t="s">
+        <v>90</v>
+      </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="8"/>
+      <c r="A7" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="8"/>
+      <c r="D8" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="A9" s="25" t="s">
+        <v>97</v>
+      </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="8"/>
+      <c r="D9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="8"/>
+      <c r="A10" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+      <c r="A11" s="25" t="s">
+        <v>100</v>
+      </c>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="8"/>
+      <c r="D11" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+      <c r="A12" s="25" t="s">
+        <v>101</v>
+      </c>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+      <c r="A13" s="25" t="s">
+        <v>102</v>
+      </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="8"/>
+      <c r="D13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+      <c r="A14" s="25" t="s">
+        <v>103</v>
+      </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="25" t="s">
+        <v>104</v>
+      </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
@@ -3072,15 +3150,16 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3132,14 +3211,14 @@
       </c>
       <c r="C2" s="11">
         <f>COUNTIF('چکلیست کسب و کار'!D6:D100,"N")</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="12" t="e">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12">
         <f>(COUNTIF('چکلیست عمومی'!D6:D66,"Y")+COUNTIF('چکلیست زیرساخت'!D6:D21,"Y"))/
      (COUNTIF('چکلیست عمومی'!D6:D66,"Y")+COUNTIF('چکلیست عمومی'!D6:D66,"N")+
      COUNTIF('چکلیست زیرساخت'!D6:D21,"Y")+COUNTIF('چکلیست زیرساخت'!D6:D21,"N")+
      COUNTIF('چکلیست کسب و کار'!D6:D100,"N"))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
